--- a/Data/HRT_Data.xlsx
+++ b/Data/HRT_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/Position Paper/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FBA13641-770F-4705-A683-5643A26698C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9ADA9D9-6986-4D24-86CC-8918821E62DF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{FBA13641-770F-4705-A683-5643A26698C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0580ACE0-341C-47FB-BED5-9A6B15DDC4C4}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="5985" windowWidth="19440" windowHeight="15000" xr2:uid="{3A1A4514-DFCC-4DCF-87BE-B62CAA0B9CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3A1A4514-DFCC-4DCF-87BE-B62CAA0B9CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="England" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>2021/2022</t>
   </si>
   <si>
-    <t>2022/2023 (YTD June 2022)</t>
+    <t>2022/2023</t>
   </si>
 </sst>
 </file>
@@ -156,9 +156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +196,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -302,7 +302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +485,13 @@
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>1404427</v>
+        <v>1028411</v>
       </c>
       <c r="D2">
         <v>54786300</v>
       </c>
       <c r="E2">
-        <v>25.634638586653999</v>
+        <v>18.7713169168204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>2016</v>
       </c>
       <c r="C3">
-        <v>1473001</v>
+        <v>1135550</v>
       </c>
       <c r="D3">
         <v>55268100</v>
       </c>
       <c r="E3">
-        <v>26.651920366359601</v>
+        <v>20.5462102008211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,13 +519,13 @@
         <v>2017</v>
       </c>
       <c r="C4">
-        <v>1537919</v>
+        <v>1248736</v>
       </c>
       <c r="D4">
         <v>55619400</v>
       </c>
       <c r="E4">
-        <v>27.6507657400116</v>
+        <v>22.451446797340498</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,13 +536,13 @@
         <v>2018</v>
       </c>
       <c r="C5">
-        <v>1592177</v>
+        <v>1344640</v>
       </c>
       <c r="D5">
         <v>55977200</v>
       </c>
       <c r="E5">
-        <v>28.443312634429699</v>
+        <v>24.021208634944202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>1675302</v>
+        <v>1455591</v>
       </c>
       <c r="D6">
         <v>56287000</v>
       </c>
       <c r="E6">
-        <v>29.763568852488099</v>
+        <v>25.860163092721201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>2020</v>
       </c>
       <c r="C7">
-        <v>1477278</v>
+        <v>1384489</v>
       </c>
       <c r="D7">
         <v>56550000</v>
       </c>
       <c r="E7">
-        <v>26.123395225464201</v>
+        <v>24.482564102564101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,13 +587,13 @@
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>1927419</v>
+        <v>1813228</v>
       </c>
       <c r="D8">
-        <v>56489800</v>
+        <v>56536400</v>
       </c>
       <c r="E8">
-        <v>34.119770294814302</v>
+        <v>32.071868742969102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>1434069</v>
+        <v>2344680</v>
       </c>
     </row>
   </sheetData>
